--- a/downloads/Course Registration.xlsx
+++ b/downloads/Course Registration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\arms-alternate\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A4AF9-2DFC-4BE8-8215-9AFD85BACC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042B1399-8C5E-46B4-87F4-45CA3A41BE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5BA239FA-0A93-4590-9B2F-F91F4CA6D1D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>COURSE REGISTRATION</t>
   </si>
@@ -33,9 +33,6 @@
     <t>S/N</t>
   </si>
   <si>
-    <t>SESSION</t>
-  </si>
-  <si>
     <t>COURSE CODE</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Compulsory</t>
   </si>
   <si>
-    <t>EEE415</t>
-  </si>
-  <si>
     <t>Electromagnetics</t>
   </si>
   <si>
@@ -73,6 +67,9 @@
   </si>
   <si>
     <t>Electronics</t>
+  </si>
+  <si>
+    <t>EEE333</t>
   </si>
 </sst>
 </file>
@@ -447,25 +444,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1B060D-2823-44D1-B29B-DD0837F6BAEE}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -475,12 +472,11 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -488,32 +484,31 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
@@ -521,45 +516,39 @@
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
